--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eda\OneDrive - 株式会社ニューコム\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0FB103-890A-4BEC-B036-CABDB589A371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F9E76-2A05-4E57-A5FF-BB402447F50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39435" yWindow="135" windowWidth="17820" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29055" yWindow="345" windowWidth="17865" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,108 +517,180 @@
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="E3" s="10"/>
       <c r="F3" s="9"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="9"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="9"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="9"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="1">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
       <c r="E8" s="10"/>
       <c r="F8" s="9"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="1">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="9"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="9"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="1">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="9"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="1">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="9"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="1">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="9"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="1">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="9"/>
       <c r="G14" s="1"/>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eda\OneDrive - 株式会社ニューコム\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F9E76-2A05-4E57-A5FF-BB402447F50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0FB103-890A-4BEC-B036-CABDB589A371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29055" yWindow="345" windowWidth="17865" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39435" yWindow="135" windowWidth="17820" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,180 +517,108 @@
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="10"/>
       <c r="F3" s="9"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="10"/>
       <c r="F5" s="9"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="1">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="10"/>
       <c r="F6" s="9"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="1">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="10"/>
       <c r="F7" s="9"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="1">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="10"/>
       <c r="F8" s="9"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="1">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="10"/>
       <c r="F9" s="9"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="1">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1">
-        <v>8</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="10"/>
       <c r="F10" s="9"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="1">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1">
-        <v>9</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="10"/>
       <c r="F11" s="9"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="1">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="10"/>
       <c r="F12" s="9"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="1">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1">
-        <v>11</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="10"/>
       <c r="F13" s="9"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="1">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1">
-        <v>12</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="10"/>
       <c r="F14" s="9"/>
       <c r="G14" s="1"/>
